--- a/refs/heads/rc2/StructureDefinition-svc-provenance.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-provenance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="316">
   <si>
     <t>Path</t>
   </si>
@@ -458,7 +458,7 @@
     <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
   </si>
   <si>
-    <t>urn:EXAMPLE-who-:smart:vaccine-certificate:RC1</t>
+    <t>urn:EXAMPLE-who:smart:vaccine-certificate:RC1</t>
   </si>
   <si>
     <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
@@ -508,13 +508,6 @@
     <t>The reason that the activity was taking place.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="PUBHLTH"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -844,7 +837,7 @@
     <t>Provenance_Entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-bundle)
 </t>
   </si>
   <si>
@@ -862,6 +855,148 @@
   </si>
   <si>
     <t>./signatureText</t>
+  </si>
+  <si>
+    <t>Provenance_Signature</t>
+  </si>
+  <si>
+    <t>Provenance.signature.id</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Provenance.signature.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Indication of the reason the entity signed the object(s)</t>
+  </si>
+  <si>
+    <t>An indication of the reason that the entity signed this document. This may be explicitly included as part of the signature information and can be used when determining accountability for various actions concerning the document.</t>
+  </si>
+  <si>
+    <t>Examples include attesting to: authorship, correct transcription, and witness of specific event. Also known as a &amp;quot;Commitment Type Indication&amp;quot;.</t>
+  </si>
+  <si>
+    <t>An indication of the reason that an entity signed the object.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/signature-type</t>
+  </si>
+  <si>
+    <t>Signature.type</t>
+  </si>
+  <si>
+    <t>Provenance.signature.when</t>
+  </si>
+  <si>
+    <t>When the signature was created</t>
+  </si>
+  <si>
+    <t>When the digital signature was signed.</t>
+  </si>
+  <si>
+    <t>This should agree with the information in the signature.</t>
+  </si>
+  <si>
+    <t>Signature.when</t>
+  </si>
+  <si>
+    <t>Provenance.signature.who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization|http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner-role|http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
+</t>
+  </si>
+  <si>
+    <t>Who signed</t>
+  </si>
+  <si>
+    <t>A reference to an application-usable description of the identity that signed  (e.g. the signature used their private key).</t>
+  </si>
+  <si>
+    <t>Signature.who</t>
+  </si>
+  <si>
+    <t>Provenance.signature.onBehalfOf</t>
+  </si>
+  <si>
+    <t>The party represented</t>
+  </si>
+  <si>
+    <t>A reference to an application-usable description of the identity that is represented by the signature.</t>
+  </si>
+  <si>
+    <t>The party that can't sign. For example a child.</t>
+  </si>
+  <si>
+    <t>used when the signature is on behalf of a non-signer.</t>
+  </si>
+  <si>
+    <t>Signature.onBehalfOf</t>
+  </si>
+  <si>
+    <t>Provenance.signature.targetFormat</t>
+  </si>
+  <si>
+    <t>The technical format of the signed resources</t>
+  </si>
+  <si>
+    <t>A mime type that indicates the technical format of the target resources signed by the signature.</t>
+  </si>
+  <si>
+    <t>"xml", "json" and "ttl" are allowed, which describe the simple encodings described in the specification (and imply appropriate bundle support). Otherwise, mime types are legal here.</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
+  </si>
+  <si>
+    <t>Signature.targetFormat</t>
+  </si>
+  <si>
+    <t>Provenance.signature.sigFormat</t>
+  </si>
+  <si>
+    <t>The technical format of the signature</t>
+  </si>
+  <si>
+    <t>A mime type that indicates the technical format of the signature. Important mime types are application/signature+xml for X ML DigSig, application/jose for JWS, and image/* for a graphical image of a signature, etc.</t>
+  </si>
+  <si>
+    <t>Signature.sigFormat</t>
+  </si>
+  <si>
+    <t>Provenance.signature.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
+    <t>The actual signature content (XML DigSig. JWS, picture, etc.)</t>
+  </si>
+  <si>
+    <t>The base64 encoding of the Signature content. When signature is not recorded electronically this element would be empty.</t>
+  </si>
+  <si>
+    <t>Where the signature type is an XML DigSig, the signed content is a FHIR Resource(s), the signature is of the XML form of the Resource(s) using  XML-Signature (XMLDIG) "Detached Signature" form.</t>
+  </si>
+  <si>
+    <t>Signature.data</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1020,7 +1155,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.1640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1029,7 +1164,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.8125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1046,7 +1181,7 @@
     <col min="25" max="25" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2209,7 +2344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>110</v>
       </c>
@@ -2225,7 +2360,7 @@
         <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -2820,28 +2955,28 @@
         <v>44</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="S16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W16" t="s" s="2">
+      <c r="X16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -2874,24 +3009,24 @@
         <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2917,10 +3052,10 @@
         <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2947,14 +3082,14 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
       </c>
@@ -2971,7 +3106,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2986,16 +3121,16 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AL17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -3003,7 +3138,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3017,7 +3152,7 @@
         <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3026,19 +3161,19 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3075,17 +3210,17 @@
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>54</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>53</v>
@@ -3100,24 +3235,24 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3143,10 +3278,10 @@
         <v>55</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3197,25 +3332,25 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3229,7 +3364,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3258,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>102</v>
@@ -3311,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3329,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3343,11 +3478,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3369,10 +3504,10 @@
         <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>102</v>
@@ -3427,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3459,7 +3594,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3485,13 +3620,13 @@
         <v>154</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3517,14 +3652,14 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
       </c>
@@ -3541,7 +3676,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3556,24 +3691,24 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3599,13 +3734,13 @@
         <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3631,14 +3766,14 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
       </c>
@@ -3655,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3673,21 +3808,21 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3710,16 +3845,16 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3769,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>53</v>
@@ -3784,16 +3919,16 @@
         <v>65</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -3801,7 +3936,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3824,16 +3959,16 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3883,7 +4018,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3901,7 +4036,7 @@
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -3915,10 +4050,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>44</v>
@@ -3940,19 +4075,19 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>44</v>
@@ -4001,7 +4136,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>53</v>
@@ -4016,24 +4151,24 @@
         <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4059,10 +4194,10 @@
         <v>55</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4113,25 +4248,25 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4145,7 +4280,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4174,7 +4309,7 @@
         <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>102</v>
@@ -4227,7 +4362,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4245,7 +4380,7 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4259,11 +4394,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4285,10 +4420,10 @@
         <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>102</v>
@@ -4343,7 +4478,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4375,7 +4510,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4401,13 +4536,13 @@
         <v>154</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4433,14 +4568,14 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
       </c>
@@ -4457,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4472,24 +4607,24 @@
         <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4515,13 +4650,13 @@
         <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4547,14 +4682,14 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4571,7 +4706,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4589,21 +4724,21 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4626,16 +4761,16 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4685,7 +4820,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>53</v>
@@ -4700,16 +4835,16 @@
         <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -4717,7 +4852,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4740,16 +4875,16 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4799,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4817,7 +4952,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -4831,7 +4966,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4845,7 +4980,7 @@
         <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>44</v>
@@ -4854,13 +4989,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4899,17 +5034,17 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>54</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4927,21 +5062,21 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4967,10 +5102,10 @@
         <v>55</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5021,25 +5156,25 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5053,7 +5188,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5082,7 +5217,7 @@
         <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>102</v>
@@ -5135,7 +5270,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5153,7 +5288,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5167,11 +5302,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5193,10 +5328,10 @@
         <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>102</v>
@@ -5251,7 +5386,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5283,7 +5418,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5309,10 +5444,10 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5339,14 +5474,14 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5363,7 +5498,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5381,21 +5516,21 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5421,13 +5556,13 @@
         <v>111</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5477,7 +5612,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>53</v>
@@ -5495,10 +5630,10 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -5509,7 +5644,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5535,13 +5670,13 @@
         <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5591,7 +5726,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5609,7 +5744,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5623,10 +5758,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>44</v>
@@ -5648,13 +5783,13 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5705,7 +5840,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5723,21 +5858,21 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5763,10 +5898,10 @@
         <v>55</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5817,25 +5952,25 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -5849,7 +5984,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5878,7 +6013,7 @@
         <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>102</v>
@@ -5931,7 +6066,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -5949,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -5963,11 +6098,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5989,10 +6124,10 @@
         <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>102</v>
@@ -6047,7 +6182,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6079,7 +6214,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6105,10 +6240,10 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6135,14 +6270,14 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="X45" t="s" s="2">
+      <c r="Y45" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>44</v>
       </c>
@@ -6159,7 +6294,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>53</v>
@@ -6177,21 +6312,21 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6214,16 +6349,16 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6273,7 +6408,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>53</v>
@@ -6291,10 +6426,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6305,7 +6440,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6331,13 +6466,13 @@
         <v>44</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6387,7 +6522,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6405,7 +6540,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6419,7 +6554,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6427,13 +6562,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>44</v>
@@ -6442,13 +6577,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6487,19 +6622,17 @@
         <v>44</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6517,20 +6650,1158 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="C49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48">
+  <autoFilter ref="A1:AN58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6540,7 +7811,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2/StructureDefinition-svc-provenance.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-provenance.xlsx
@@ -735,11 +735,11 @@
     <t>Provenance_Agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient)
 </t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>Provenance_Entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-bundle)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-bundle)
 </t>
   </si>
   <si>
@@ -916,7 +916,7 @@
     <t>Provenance.signature.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization|http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner-role|http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner-role|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner)
 </t>
   </si>
   <si>
